--- a/CRL.xlsx
+++ b/CRL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382AF5A-7207-4BF1-93A5-347A3DCF1DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A599B31-24BF-43E0-A0B3-41FEA01ACF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31305" yWindow="1305" windowWidth="22470" windowHeight="17985" xr2:uid="{1CAAA591-69FE-48DF-AEDB-515C2C73C106}"/>
+    <workbookView xWindow="-21495" yWindow="5250" windowWidth="19665" windowHeight="14175" activeTab="1" xr2:uid="{1CAAA591-69FE-48DF-AEDB-515C2C73C106}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -389,16 +401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17348</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53984</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47115</xdr:rowOff>
+      <xdr:rowOff>3153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17348</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53984</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:rowOff>81224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -413,8 +425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7865948" y="47115"/>
-          <a:ext cx="0" cy="12161214"/>
+          <a:off x="8501926" y="3153"/>
+          <a:ext cx="0" cy="12812263"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -759,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE6E10E-492B-42C3-A2B1-B5B22F9FA67B}">
   <dimension ref="E2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>200</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.2">
@@ -796,7 +808,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>10326.145200000001</v>
+        <v>6040.7949420000004</v>
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.2">
@@ -833,7 +845,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>12324.145200000001</v>
+        <v>8038.7949420000004</v>
       </c>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.2">
@@ -863,28 +875,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841B803A-3AF6-40B3-A49B-4B32D63A3671}">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T78" sqref="T78"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="18" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -921,43 +933,70 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2">
+        <v>2016</v>
+      </c>
+      <c r="W2">
+        <f>+X2-1</f>
+        <v>2017</v>
+      </c>
+      <c r="X2">
+        <f>+Y2-1</f>
+        <v>2018</v>
+      </c>
+      <c r="Y2">
+        <f>+Z2-1</f>
+        <v>2019</v>
+      </c>
+      <c r="Z2">
         <v>2020</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:Y2" si="0">+R2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AH2" si="0">+AA2+1</f>
         <v>2022</v>
       </c>
-      <c r="T2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="V2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
@@ -977,14 +1016,18 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="S3" s="2">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="AB3" s="2">
         <v>739.17499999999995</v>
       </c>
-      <c r="T3" s="2">
+      <c r="AC3" s="2">
         <v>792.34299999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1004,14 +1047,18 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="S4" s="2">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="AB4" s="2">
         <v>2447.3159999999998</v>
       </c>
-      <c r="T4" s="2">
+      <c r="AC4" s="2">
         <v>2615.623</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1027,14 +1074,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="S5" s="2">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="AB5" s="2">
         <v>789.56899999999996</v>
       </c>
-      <c r="T5" s="2">
+      <c r="AC5" s="2">
         <v>721.44299999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1099,9 @@
       <c r="H7" s="4">
         <v>874.89099999999996</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>869.75900000000001</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <v>816.86199999999997</v>
@@ -1056,19 +1109,40 @@
       <c r="L7" s="4">
         <v>842.9</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>832.46299999999997</v>
+      </c>
       <c r="N7" s="4"/>
-      <c r="R7" s="2">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="V7" s="2">
+        <v>1130.7329999999999</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1298.298</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1687.941</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2029.3710000000001</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2296.1559999999999</v>
+      </c>
+      <c r="AA7" s="2">
         <v>2755.5790000000002</v>
       </c>
-      <c r="S7" s="2">
+      <c r="AB7" s="2">
         <v>3216.904</v>
       </c>
-      <c r="T7" s="2">
+      <c r="AC7" s="2">
         <v>3440.0189999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1156,9 @@
       <c r="H8" s="4">
         <v>185.04599999999999</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>156.864</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
         <v>194.69800000000001</v>
@@ -1090,19 +1166,40 @@
       <c r="L8" s="4">
         <v>183.21700000000001</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>177.3</v>
+      </c>
       <c r="N8" s="4"/>
-      <c r="R8" s="2">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="V8" s="2">
+        <v>550.69899999999996</v>
+      </c>
+      <c r="W8" s="2">
+        <v>559.303</v>
+      </c>
+      <c r="X8" s="2">
+        <v>578.15499999999997</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>591.85500000000002</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>627.77700000000004</v>
+      </c>
+      <c r="AA8" s="2">
         <v>784.58100000000002</v>
       </c>
-      <c r="S8" s="2">
+      <c r="AB8" s="2">
         <v>759.15599999999995</v>
       </c>
-      <c r="T8" s="2">
+      <c r="AC8" s="2">
         <v>689.39</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1215,10 @@
         <f>+H7+H8</f>
         <v>1059.9369999999999</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <f>+I7+I8</f>
+        <v>1026.623</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6">
         <f>+K7+K8</f>
@@ -1128,22 +1228,67 @@
         <f>+L7+L8</f>
         <v>1026.117</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="R9" s="5">
+      <c r="M9" s="6">
+        <f>+M7+M8</f>
+        <v>1009.7629999999999</v>
+      </c>
+      <c r="N9" s="6">
+        <f>+N7+N8</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>+O7+O8</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <f>+P7+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>+Q7+Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
         <f>+R7+R8</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f>+V7+V8</f>
+        <v>1681.4319999999998</v>
+      </c>
+      <c r="W9" s="5">
+        <f>+W7+W8</f>
+        <v>1857.6010000000001</v>
+      </c>
+      <c r="X9" s="5">
+        <f>+X7+X8</f>
+        <v>2266.096</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>+Y7+Y8</f>
+        <v>2621.2260000000001</v>
+      </c>
+      <c r="Z9" s="5">
+        <f>+Z7+Z8</f>
+        <v>2923.933</v>
+      </c>
+      <c r="AA9" s="5">
+        <f>+AA7+AA8</f>
         <v>3540.1600000000003</v>
       </c>
-      <c r="S9" s="5">
-        <f>+S7+S8</f>
+      <c r="AB9" s="5">
+        <f>+AB7+AB8</f>
         <v>3976.06</v>
       </c>
-      <c r="T9" s="5">
-        <f>+T7+T8</f>
+      <c r="AC9" s="5">
+        <f>+AC7+AC8</f>
         <v>4129.4089999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="5">
+        <v>4049.989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1302,9 @@
       <c r="H10" s="4">
         <v>578.09900000000005</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>587.55999999999995</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
         <v>578.16399999999999</v>
@@ -1165,10 +1312,31 @@
       <c r="L10" s="4">
         <v>577.38300000000004</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>568.69899999999996</v>
+      </c>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="V10" s="2">
+        <v>760.43899999999996</v>
+      </c>
+      <c r="W10" s="2">
+        <v>867.01400000000001</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1150.3710000000001</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1371.6990000000001</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1533.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1350,9 @@
       <c r="H11" s="4">
         <v>82.861000000000004</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>77.222999999999999</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
         <v>88.552999999999997</v>
@@ -1190,10 +1360,31 @@
       <c r="L11" s="4">
         <v>95.021000000000001</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>92.043000000000006</v>
+      </c>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="V11" s="2">
+        <v>277.03399999999999</v>
+      </c>
+      <c r="W11" s="2">
+        <v>289.66899999999998</v>
+      </c>
+      <c r="X11" s="2">
+        <v>275.65800000000002</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>291.21600000000001</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>317.16199999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1400,10 @@
         <f>+H10+H11</f>
         <v>660.96</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <f>+I10+I11</f>
+        <v>664.7829999999999</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
         <f>+K10+K11</f>
@@ -1219,22 +1413,49 @@
         <f>+L10+L11</f>
         <v>672.404</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <f>+M10+M11</f>
+        <v>660.74199999999996</v>
+      </c>
       <c r="N12" s="4"/>
-      <c r="R12" s="2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="V12" s="2">
+        <f>+V11+V10</f>
+        <v>1037.473</v>
+      </c>
+      <c r="W12" s="2">
+        <f>+W11+W10</f>
+        <v>1156.683</v>
+      </c>
+      <c r="X12" s="2">
+        <f>+X11+X10</f>
+        <v>1426.029</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>+Y11+Y10</f>
+        <v>1662.915</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>+Z11+Z10</f>
+        <v>1850.3920000000001</v>
+      </c>
+      <c r="AA12" s="2">
         <f>1837.487+368.035</f>
         <v>2205.5219999999999</v>
       </c>
-      <c r="S12" s="2">
+      <c r="AB12" s="2">
         <f>2143.318+370.091</f>
         <v>2513.4090000000001</v>
       </c>
-      <c r="T12" s="2">
+      <c r="AC12" s="2">
         <f>2295.983+330.87</f>
         <v>2626.8530000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1471,10 @@
         <f>+H9-H12</f>
         <v>398.97699999999986</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4">
+        <f>+I9-I12</f>
+        <v>361.84000000000015</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
         <f>+K9-K12</f>
@@ -1260,22 +1484,49 @@
         <f>+L9-L12</f>
         <v>353.71299999999997</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <f>+M9-M12</f>
+        <v>349.02099999999996</v>
+      </c>
       <c r="N13" s="4"/>
-      <c r="R13" s="2">
-        <f>+R9-R12</f>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="V13" s="2">
+        <f>+V9-V12</f>
+        <v>643.95899999999983</v>
+      </c>
+      <c r="W13" s="2">
+        <f>+W9-W12</f>
+        <v>700.91800000000012</v>
+      </c>
+      <c r="X13" s="2">
+        <f>+X9-X12</f>
+        <v>840.06700000000001</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>+Y9-Y12</f>
+        <v>958.31100000000015</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>+Z9-Z12</f>
+        <v>1073.5409999999999</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>+AA9-AA12</f>
         <v>1334.6380000000004</v>
       </c>
-      <c r="S13" s="2">
-        <f>+S9-S12</f>
+      <c r="AB13" s="2">
+        <f>+AB9-AB12</f>
         <v>1462.6509999999998</v>
       </c>
-      <c r="T13" s="2">
-        <f>+T9-T12</f>
+      <c r="AC13" s="2">
+        <f>+AC9-AC12</f>
         <v>1502.5559999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1540,9 @@
       <c r="H14" s="4">
         <v>199.75800000000001</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>176.10900000000001</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
         <v>186.291</v>
@@ -1297,19 +1550,40 @@
       <c r="L14" s="4">
         <v>169.791</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>199.21299999999999</v>
+      </c>
       <c r="N14" s="4"/>
-      <c r="R14" s="2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="V14" s="2">
+        <v>364.70800000000003</v>
+      </c>
+      <c r="W14" s="2">
+        <v>371.26600000000002</v>
+      </c>
+      <c r="X14" s="2">
+        <v>443.85399999999998</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>517.62199999999996</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>528.93499999999995</v>
+      </c>
+      <c r="AA14" s="2">
         <v>619.91899999999998</v>
       </c>
-      <c r="S14" s="2">
+      <c r="AB14" s="2">
         <v>665.09799999999996</v>
       </c>
-      <c r="T14" s="2">
+      <c r="AC14" s="2">
         <v>747.85500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1599,10 @@
         <f>+H13-H14</f>
         <v>199.21899999999985</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <f>+I13-I14</f>
+        <v>185.73100000000014</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
         <f>+K13-K14</f>
@@ -1335,22 +1612,49 @@
         <f>+L13-L14</f>
         <v>183.92199999999997</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <f>+M13-M14</f>
+        <v>149.80799999999996</v>
+      </c>
       <c r="N15" s="4"/>
-      <c r="R15" s="2">
-        <f>+R13-R14</f>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="V15" s="2">
+        <f>+V13-V14</f>
+        <v>279.25099999999981</v>
+      </c>
+      <c r="W15" s="2">
+        <f>+W13-W14</f>
+        <v>329.6520000000001</v>
+      </c>
+      <c r="X15" s="2">
+        <f>+X13-X14</f>
+        <v>396.21300000000002</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+Y13-Y14</f>
+        <v>440.68900000000019</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>+Z13-Z14</f>
+        <v>544.60599999999999</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>+AA13-AA14</f>
         <v>714.71900000000039</v>
       </c>
-      <c r="S15" s="2">
-        <f>+S13-S14</f>
+      <c r="AB15" s="2">
+        <f>+AB13-AB14</f>
         <v>797.55299999999988</v>
       </c>
-      <c r="T15" s="2">
-        <f>+T13-T14</f>
+      <c r="AC15" s="2">
+        <f>+AC13-AC14</f>
         <v>754.70099999999957</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1366,7 +1670,10 @@
         <f>-35.044+1.426-2.663</f>
         <v>-36.280999999999992</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <f>-33.742+1.373</f>
+        <v>-32.369</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4">
         <f>-35.001+2.2+5.833</f>
@@ -1376,22 +1683,49 @@
         <f>3.01-32.769-2.24</f>
         <v>-31.999000000000002</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <f>-30.284+1.528+2.592</f>
+        <v>-26.164000000000001</v>
+      </c>
       <c r="N16" s="4"/>
-      <c r="R16" s="2">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="V16" s="2">
+        <f>-27.709+1.314</f>
+        <v>-26.395</v>
+      </c>
+      <c r="W16" s="2">
+        <f>-29.777+0.69</f>
+        <v>-29.087</v>
+      </c>
+      <c r="X16" s="2">
+        <f>-63.772+13.258</f>
+        <v>-50.513999999999996</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>-60.882+1.522</f>
+        <v>-59.36</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>-86.433+0.834</f>
+        <v>-85.599000000000004</v>
+      </c>
+      <c r="AA16" s="2">
         <f>0.652-73.91-35.894</f>
         <v>-109.15199999999999</v>
       </c>
-      <c r="S16" s="2">
+      <c r="AB16" s="2">
         <f>0.78-59.291+30.523</f>
         <v>-27.987999999999996</v>
       </c>
-      <c r="T16" s="2">
+      <c r="AC16" s="2">
         <f>5.196-136.71+95.537</f>
         <v>-35.977000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1407,7 +1741,10 @@
         <f>+H15+H16</f>
         <v>162.93799999999987</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <f>+I15+I16</f>
+        <v>153.36200000000014</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
         <f>+K15+K16</f>
@@ -1417,22 +1754,49 @@
         <f>+L15+L16</f>
         <v>151.92299999999997</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <f>+M15+M16</f>
+        <v>123.64399999999996</v>
+      </c>
       <c r="N17" s="4"/>
-      <c r="R17" s="2">
-        <f t="shared" ref="R17:S17" si="1">+R15+R16</f>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="V17" s="2">
+        <f t="shared" ref="V17:W17" si="1">+V15+V16</f>
+        <v>252.8559999999998</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="1"/>
+        <v>300.56500000000011</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" ref="X17:AA17" si="2">+X15+X16</f>
+        <v>345.69900000000001</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="2"/>
+        <v>381.32900000000018</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>459.00700000000001</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" ref="AA17:AB17" si="3">+AA15+AA16</f>
         <v>605.56700000000046</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="1"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="3"/>
         <v>769.56499999999994</v>
       </c>
-      <c r="T17" s="2">
-        <f>+T15+T16</f>
+      <c r="AC17" s="2">
+        <f>+AC15+AC16</f>
         <v>718.72399999999959</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1812,9 @@
         <f>29.221+2.423</f>
         <v>31.643999999999998</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <v>24.852</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
         <f>24.529+1.522</f>
@@ -1458,22 +1824,43 @@
         <f>25.392+0.18</f>
         <v>25.571999999999999</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>20.946000000000002</v>
+      </c>
       <c r="N18" s="4"/>
-      <c r="R18" s="2">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="V18" s="2">
+        <v>66.834999999999994</v>
+      </c>
+      <c r="W18" s="2">
+        <v>171.369</v>
+      </c>
+      <c r="X18" s="2">
+        <v>54.463000000000001</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>50.023000000000003</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>81.808000000000007</v>
+      </c>
+      <c r="AA18" s="2">
         <f>81.873+7.855</f>
         <v>89.728000000000009</v>
       </c>
-      <c r="S18" s="2">
+      <c r="AB18" s="2">
         <f>130.379+6.382</f>
         <v>136.761</v>
       </c>
-      <c r="T18" s="2">
+      <c r="AC18" s="2">
         <f>100.914+5.746</f>
         <v>106.66</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1876,10 @@
         <f>+H17-H18</f>
         <v>131.29399999999987</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <f>+I17-I18</f>
+        <v>128.51000000000013</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
         <f>+K17-K18</f>
@@ -1499,22 +1889,49 @@
         <f>+L17-L18</f>
         <v>126.35099999999997</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <f>+M17-M18</f>
+        <v>102.69799999999996</v>
+      </c>
       <c r="N19" s="4"/>
-      <c r="R19" s="2">
-        <f t="shared" ref="R19:S19" si="2">+R17-R18</f>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="V19" s="2">
+        <f t="shared" ref="V19:W19" si="4">+V17-V18</f>
+        <v>186.02099999999979</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>129.19600000000011</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" ref="X19:AB19" si="5">+X17-X18</f>
+        <v>291.23599999999999</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="5"/>
+        <v>331.30600000000015</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="5"/>
+        <v>377.19900000000001</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="5"/>
         <v>515.8390000000004</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" si="2"/>
+      <c r="AB19" s="2">
+        <f t="shared" si="5"/>
         <v>632.80399999999997</v>
       </c>
-      <c r="T19" s="2">
-        <f>+T17-T18</f>
+      <c r="AC19" s="2">
+        <f>+AC17-AC18</f>
         <v>612.06399999999962</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1526,6 +1943,10 @@
         <f>+H19/H21</f>
         <v>2.5510327005654085</v>
       </c>
+      <c r="I20" s="7">
+        <f>+I19/I21</f>
+        <v>2.490166062743429</v>
+      </c>
       <c r="K20" s="7">
         <f>+K19/K21</f>
         <v>2.0356660622661158</v>
@@ -1534,20 +1955,44 @@
         <f>+L19/L21</f>
         <v>2.4370443235736601</v>
       </c>
-      <c r="R20" s="1">
-        <f>+R19/R21</f>
+      <c r="M20" s="7">
+        <f>+M19/M21</f>
+        <v>1.9909272434716858</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:Z20" si="6">+V19/V21</f>
+        <v>3.8788314775428456</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6356848504630976</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="6"/>
+        <v>5.9414092782243255</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="6"/>
+        <v>6.667055722133906</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="6"/>
+        <v>7.4529054948528985</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>+AA19/AA21</f>
         <v>10.030899368011676</v>
       </c>
-      <c r="S20" s="1">
-        <f t="shared" ref="S20:T20" si="3">+S19/S21</f>
+      <c r="AB20" s="1">
+        <f t="shared" ref="AB20:AC20" si="7">+AB19/AB21</f>
         <v>12.33512017309604</v>
       </c>
-      <c r="T20" s="1">
-        <f t="shared" si="3"/>
+      <c r="AC20" s="1">
+        <f t="shared" si="7"/>
         <v>11.896056442051654</v>
       </c>
     </row>
-    <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +2006,9 @@
       <c r="H21" s="4">
         <v>51.466999999999999</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4">
+        <v>51.606999999999999</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
         <v>51.841999999999999</v>
@@ -1569,21 +2016,46 @@
       <c r="L21" s="4">
         <v>51.845999999999997</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>51.582999999999998</v>
+      </c>
       <c r="N21" s="4"/>
-      <c r="R21" s="2">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="V21" s="2">
+        <v>47.957999999999998</v>
+      </c>
+      <c r="W21" s="2">
+        <v>49.018000000000001</v>
+      </c>
+      <c r="X21" s="2">
+        <v>49.018000000000001</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>49.692999999999998</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>50.610999999999997</v>
+      </c>
+      <c r="AA21" s="2">
         <v>51.424999999999997</v>
       </c>
-      <c r="S21" s="2">
+      <c r="AB21" s="2">
         <v>51.301000000000002</v>
       </c>
-      <c r="T21" s="2">
+      <c r="AC21" s="2">
         <v>51.451000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="I23" s="8" t="e">
+        <f>+I9/E9-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K23" s="8">
         <f>+K9/G9-1</f>
@@ -1593,35 +2065,87 @@
         <f>+L9/H9-1</f>
         <v>-3.1907556769883438E-2</v>
       </c>
-      <c r="S23" s="10">
-        <f>+S9/R9-1</f>
+      <c r="M23" s="8">
+        <f>+M9/I9-1</f>
+        <v>-1.6422776423283048E-2</v>
+      </c>
+      <c r="W23" s="10">
+        <f>+W9/V9-1</f>
+        <v>0.10477319332568924</v>
+      </c>
+      <c r="X23" s="10">
+        <f>+X9/W9-1</f>
+        <v>0.2199045973812459</v>
+      </c>
+      <c r="Y23" s="10">
+        <f>+Y9/X9-1</f>
+        <v>0.15671445516871318</v>
+      </c>
+      <c r="Z23" s="10">
+        <f>+Z9/Y9-1</f>
+        <v>0.11548298391668621</v>
+      </c>
+      <c r="AA23" s="10">
+        <f>+AA9/Z9-1</f>
+        <v>0.21075277716691887</v>
+      </c>
+      <c r="AB23" s="10">
+        <f>+AB9/AA9-1</f>
         <v>0.12313002802133233</v>
       </c>
-      <c r="T23" s="10">
-        <f>+T9/S9-1</f>
+      <c r="AC23" s="10">
+        <f>+AC9/AB9-1</f>
         <v>3.8568079958551937E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AD23" s="10">
+        <f t="shared" ref="AD23" si="8">+AD9/AC9-1</f>
+        <v>-1.923277640940857E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="R24" s="10">
-        <f>+R13/R9</f>
+      <c r="V24" s="10">
+        <f>+V13/V9</f>
+        <v>0.38298248159901793</v>
+      </c>
+      <c r="W24" s="10">
+        <f>+W13/W9</f>
+        <v>0.37732430161267144</v>
+      </c>
+      <c r="X24" s="10">
+        <f>+X13/X9</f>
+        <v>0.37071112609527573</v>
+      </c>
+      <c r="Y24" s="10">
+        <f>+Y13/Y9</f>
+        <v>0.36559648042557191</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>+Z13/Z9</f>
+        <v>0.36715649777200776</v>
+      </c>
+      <c r="AA24" s="10">
+        <f>+AA13/AA9</f>
         <v>0.37699934466238821</v>
       </c>
-      <c r="S24" s="10">
-        <f t="shared" ref="S24:T24" si="4">+S13/S9</f>
+      <c r="AB24" s="10">
+        <f t="shared" ref="AB24:AC24" si="9">+AB13/AB9</f>
         <v>0.36786441854499174</v>
       </c>
-      <c r="T24" s="10">
-        <f t="shared" si="4"/>
+      <c r="AC24" s="10">
+        <f t="shared" si="9"/>
         <v>0.36386708122155004</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AD24" s="10">
+        <f t="shared" ref="AD24" si="10">+AD13/AD9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +2154,7 @@
         <v>-1998.308</v>
       </c>
     </row>
-    <row r="27" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +2173,12 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1668,8 +2196,12 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1687,8 +2219,12 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1706,8 +2242,12 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1725,8 +2265,12 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1744,8 +2288,12 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1763,8 +2311,12 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1783,8 +2335,12 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1802,8 +2358,12 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1821,8 +2381,12 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1841,8 +2405,12 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-    </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="39" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
@@ -1860,8 +2428,12 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1879,8 +2451,12 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1898,8 +2474,12 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
@@ -1917,8 +2497,12 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
@@ -1936,8 +2520,12 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1955,8 +2543,12 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1974,8 +2566,12 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1993,8 +2589,12 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2012,8 +2612,12 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2032,8 +2636,12 @@
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2660,12 @@
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-    </row>
-    <row r="51" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="51" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2075,8 +2687,12 @@
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
@@ -2097,8 +2713,12 @@
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
@@ -2119,8 +2739,12 @@
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
@@ -2141,8 +2765,12 @@
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
@@ -2163,8 +2791,12 @@
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
@@ -2185,8 +2817,12 @@
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-    </row>
-    <row r="57" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2207,8 +2843,12 @@
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>60</v>
       </c>
@@ -2229,8 +2869,12 @@
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
-    </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2251,8 +2895,12 @@
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-    </row>
-    <row r="60" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2273,8 +2921,12 @@
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
-    </row>
-    <row r="61" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>63</v>
       </c>
@@ -2296,8 +2948,12 @@
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
-    </row>
-    <row r="62" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2319,17 +2975,21 @@
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="R62" s="2">
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="AA62" s="2">
         <v>760.79899999999998</v>
       </c>
-      <c r="S62" s="2">
+      <c r="AB62" s="2">
         <v>619.64</v>
       </c>
-      <c r="T62" s="2">
+      <c r="AC62" s="2">
         <v>683.89800000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2342,17 +3002,21 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
-      <c r="R63" s="2">
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="AA63" s="2">
         <v>228.77199999999999</v>
       </c>
-      <c r="S63" s="2">
+      <c r="AB63" s="2">
         <v>327.733</v>
       </c>
-      <c r="T63" s="2">
+      <c r="AC63" s="2">
         <v>318.52800000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2373,8 +3037,12 @@
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-    </row>
-    <row r="65" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
@@ -2395,8 +3063,12 @@
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>59</v>
       </c>
@@ -2418,8 +3090,12 @@
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-    </row>
-    <row r="67" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -2441,8 +3117,12 @@
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-    </row>
-    <row r="68" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2455,8 +3135,12 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
-    </row>
-    <row r="69" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
@@ -2478,8 +3162,12 @@
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
-    </row>
-    <row r="70" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2500,8 +3188,12 @@
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
-    </row>
-    <row r="71" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2522,8 +3214,12 @@
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
-    </row>
-    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2544,8 +3240,12 @@
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>62</v>
       </c>
@@ -2566,8 +3266,12 @@
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-    </row>
-    <row r="74" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
@@ -2589,8 +3293,12 @@
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
@@ -2611,8 +3319,12 @@
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
-    </row>
-    <row r="76" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
@@ -2634,18 +3346,22 @@
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="R78" s="2">
-        <f>+R62-R63</f>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AA78" s="2">
+        <f>+AA62-AA63</f>
         <v>532.02700000000004</v>
       </c>
-      <c r="S78" s="2">
-        <f>+S62-S63</f>
+      <c r="AB78" s="2">
+        <f>+AB62-AB63</f>
         <v>291.90699999999998</v>
       </c>
-      <c r="T78" s="2">
-        <f>+T62-T63</f>
+      <c r="AC78" s="2">
+        <f>+AC62-AC63</f>
         <v>365.37</v>
       </c>
     </row>
